--- a/target/test-classes/com/inetbanking/testData/LoginData.xlsx
+++ b/target/test-classes/com/inetbanking/testData/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Selenium\excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Selenium\eclipse\inetBankingV1\src\test\java\com\inetbanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E8644-8289-4DE2-83F4-20692F7E8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BBE011-4D45-4469-829C-9B7A0E709037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>zUgUpAm7U</t>
   </si>
   <si>
-    <t>mngr514804988</t>
-  </si>
-  <si>
-    <t>zUgUpAm7po</t>
+    <t>mngr526052</t>
+  </si>
+  <si>
+    <t>jehYnyq</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
